--- a/method/method.xlsx
+++ b/method/method.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mini\Documents\24\BPMsem\1\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp1\SemanticBPM\method\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>relationship</t>
   </si>
@@ -43,7 +43,7 @@
   </si>
   <si>
     <r>
-      <t>followsTo (</t>
+      <t xml:space="preserve">Лист "relationship" задает структура триплета. </t>
     </r>
     <r>
       <rPr>
@@ -54,168 +54,186 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Синим</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> показаны соответсвующие названия из "3. Процессная ARIS-онтология", см. https://habr.com/ru/articles/828266/</t>
+    </r>
+  </si>
+  <si>
+    <t>Используется</t>
+  </si>
+  <si>
+    <t>Структурные</t>
+  </si>
+  <si>
+    <t>VAD, EPC</t>
+  </si>
+  <si>
+    <t>Суть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суть (противоположный) </t>
+  </si>
+  <si>
+    <t>имеет следующего</t>
+  </si>
+  <si>
+    <t>имеет родителя</t>
+  </si>
+  <si>
+    <t>имеет дочерний элемент</t>
+  </si>
+  <si>
+    <r>
+      <t>subject (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source object type</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>object (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target object type</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>или Рис. 3.1 Фрагмент таблички Connection types для EPC из ARIS Method Reference (стр. 1778) https://habr.com/ru/articles/795883/</t>
+  </si>
+  <si>
+    <t>имеет предшедственника</t>
+  </si>
+  <si>
+    <t>rdfs:type</t>
+  </si>
+  <si>
+    <t>ProcessType (Object Type)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> hasPrev (previous), [aris: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>follows</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hasNext, [aris: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is predecessor of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, hasPrev)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hasNext (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is predecessor of</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Лист "relationship" задает структура триплета. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Синим</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> показаны соответсвующие названия из "3. Процессная ARIS-онтология", см. https://habr.com/ru/articles/828266/</t>
-    </r>
-  </si>
-  <si>
-    <t>Используется</t>
-  </si>
-  <si>
-    <t>Структурные</t>
-  </si>
-  <si>
-    <t>VAD, EPC</t>
-  </si>
-  <si>
-    <t>Суть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Суть (противоположный) </t>
-  </si>
-  <si>
-    <t>имеет следующего</t>
-  </si>
-  <si>
-    <t>следует за (имеет предшедственника)</t>
-  </si>
-  <si>
-    <t>имеет родителя</t>
-  </si>
-  <si>
-    <t>имеет дочерний элемент</t>
-  </si>
-  <si>
-    <r>
-      <t>subject (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source object type</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>object (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Target object type</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>или Рис. 3.1 Фрагмент таблички Connection types для EPC из ARIS Method Reference (стр. 1778) https://habr.com/ru/articles/795883/</t>
+      <t>, followsTo</t>
+    </r>
+  </si>
+  <si>
+    <t>имеет тип (объект типа)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,13 +268,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,9 +302,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -554,75 +587,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
@@ -631,14 +664,28 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -665,12 +712,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
